--- a/Règles entrées-sorties.xlsx
+++ b/Règles entrées-sorties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\cours\H5\Projet\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\FarmingBySat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62B1BF-C6F6-462D-9076-11652E325E5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DCF973-AFEB-4D89-8E0E-C39B622B7BAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{3A6E5F9F-AA8D-4EB7-881E-B76FB4A0F4EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="240">
   <si>
     <t>quantité Azote</t>
   </si>
@@ -3049,26 +3049,1932 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 75%</t>
+    </r>
+  </si>
+  <si>
+    <t>lentille 100%</t>
+  </si>
+  <si>
+    <t>lentille 75%</t>
+  </si>
+  <si>
+    <t>lentille 50%</t>
+  </si>
+  <si>
+    <t>Navette 75%</t>
+  </si>
+  <si>
+    <t>Navette 50%</t>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <t>Tableau 1 : Tableau en fonction du pourcentage maximale de chaque plante</t>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 25%</t>
+    </r>
+  </si>
+  <si>
+    <t>Tableau 1 : Tableau en fonction du pourcentage maximale du mélange</t>
+  </si>
+  <si>
+    <t>Mélange max=100%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hier 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lentille 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 75%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 75%</t>
+    </r>
+  </si>
+  <si>
+    <t>Chaque plante à une quantité maximale par hectare à déterminé</t>
+  </si>
+  <si>
+    <t>Il faut que la quantité totale du mélange soit inférieur à une quantité maxMélange</t>
+  </si>
+  <si>
+    <t>ici on ne tient pas compte de la quantité max du mélange</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 550%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hier 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 57%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 42%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 66%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 66%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 57%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 42%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 42%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 57%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lentille 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Avoine hiver 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 80%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 78%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Avoine hiver 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 42%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 57%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radis 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lentille 25%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trèfle incarnat 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>lentille 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radis 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radis 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radis 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navette 60%;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Radis 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Radis 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navette 60%;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Radis 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navette 66%;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Radis 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3078,13 +4984,169 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 42%      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3093,16 +5155,264 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Navette 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Navette 50%</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Trèfle incarnat 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 14%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 57%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 66%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3112,6 +5422,381 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 23%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 76%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 37%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 62%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 37%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 62%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 83%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Féverole 78%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Féverole 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Navette 71%  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 78%  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -3122,28 +5807,1220 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 83%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 11%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 58%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <t>lentille 100%</t>
-  </si>
-  <si>
-    <t>lentille 75%</t>
-  </si>
-  <si>
-    <t>lentille 50%</t>
-  </si>
-  <si>
-    <t>Navette 75%</t>
-  </si>
-  <si>
-    <t>Navette 50%</t>
+      <t>Navette 29%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 10%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 51%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 38%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 9%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 45%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 45%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 62%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 16%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 78%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 13%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 51%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 34%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 11%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 44%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 44%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trèfle incarnat 38%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 51%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 41%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 41%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 52%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 26%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 41%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 41%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 13%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 34%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 51%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 62%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 26%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 52%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 28%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 35%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 35%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 21%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 26%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navette 52%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Radis 16%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trèfle incarnat 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 62%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 16%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 83%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 21%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 78%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 28%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 28%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 71%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radis 21%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navette 78%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 66%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 57%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 42%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 42%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 57%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 66%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 33%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navette 60%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 66%</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3156,6 +7033,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trèfle incarnat 33%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>;</t>
     </r>
     <r>
@@ -3176,25 +7077,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <t>Tableau 1 : Tableau en fonction du pourcentage maximale de chaque plante</t>
-  </si>
-  <si>
-    <r>
-      <t>Trèfle incarnat 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
+      <t>Navette 66%</t>
+    </r>
+  </si>
+  <si>
+    <t>lentille 10%</t>
+  </si>
+  <si>
+    <t>Navette 100%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navette 66%;      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radis 33%</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3203,995 +7110,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>lentille 25%</t>
-    </r>
-  </si>
-  <si>
-    <t>Tableau 1 : Tableau en fonction du pourcentage maximale du mélange</t>
-  </si>
-  <si>
-    <t>Mélange max=100%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avoine hiver 75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lentille 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lentille 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Avoine hiver 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hier 100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lentille 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hier 32%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lentille 67%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 39%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 61%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 48%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 51%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 82%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 19%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 79%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navette 75%</t>
-    </r>
-  </si>
-  <si>
-    <t>Chaque plante à une quantité maximale par hectare à déterminé</t>
-  </si>
-  <si>
-    <t>Il faut que la quantité totale du mélange soit inférieur à une quantité maxMélange</t>
-  </si>
-  <si>
-    <t>ici on ne tient pas compte de la quantité max du mélange</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Avoine hiver 100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lentille 550%</t>
+      <t>lentille 57%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Radis 42%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navette 80%;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Radis 20%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentille 66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Radis 33%</t>
     </r>
   </si>
 </sst>
@@ -4351,7 +7337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4401,21 +7387,6 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4704,56 +7675,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4771,272 +7697,167 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5390,6 +8211,9 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5578,9 +8402,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5602,6 +8423,12 @@
           <color theme="4" tint="-0.24994659260841701"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5787,12 +8614,6 @@
           <color theme="4" tint="-0.24994659260841701"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5814,68 +8635,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A72F22E8-9A61-4CC0-BB58-23F8E040598F}" name="Tableau13" displayName="Tableau13" ref="A13:H20" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A72F22E8-9A61-4CC0-BB58-23F8E040598F}" name="Tableau13" displayName="Tableau13" ref="A13:H20" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A13:H20" xr:uid="{D8CA7825-418E-4F7B-81C1-D316184A0FD6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{83FB771A-D5A0-4DB7-937D-CA561F73709D}" name="Colonne1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1A8D55B6-E660-4CDB-8B2F-97A57379993F}" name="Colonne2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{628D7FAE-5794-472D-9C72-CC555F49FCAC}" name="Colonne3" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{9E5DA409-0F01-470D-AE11-2859981DD7B1}" name="Colonne4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{5B7835A7-3F3C-44FB-A979-141F0D15AB3E}" name="Colonne5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{82E863B5-FF91-4D54-9689-E9062F9ADB23}" name="Colonne6" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{9BAA0D0C-D503-4D5E-B371-7ACD43C601F1}" name="Colonne7" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{56AEA22A-EF39-496F-A318-89CDCFED12AB}" name="Colonne8" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{83FB771A-D5A0-4DB7-937D-CA561F73709D}" name="Colonne1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1A8D55B6-E660-4CDB-8B2F-97A57379993F}" name="Colonne2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{628D7FAE-5794-472D-9C72-CC555F49FCAC}" name="Colonne3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{9E5DA409-0F01-470D-AE11-2859981DD7B1}" name="Colonne4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5B7835A7-3F3C-44FB-A979-141F0D15AB3E}" name="Colonne5" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{82E863B5-FF91-4D54-9689-E9062F9ADB23}" name="Colonne6" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{9BAA0D0C-D503-4D5E-B371-7ACD43C601F1}" name="Colonne7" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{56AEA22A-EF39-496F-A318-89CDCFED12AB}" name="Colonne8" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABD8B671-2D1A-4739-9F6A-E98C307EBF60}" name="Tableau14" displayName="Tableau14" ref="A68:H75" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A68:H75" xr:uid="{175E2150-93D4-409F-95D6-5E8453D85A6F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7B56C120-BA3D-4897-AB82-9BB25ECB87FF}" name="Tableau146" displayName="Tableau146" ref="A1:H8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H8" xr:uid="{1F7087E7-C251-47AB-8208-C3937716FC1B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5B4980D0-984B-4E49-9CC5-0C16D60E9479}" name="Colonne1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D086A536-C7BF-42B2-82F8-19293CB8A4B6}" name="Colonne2" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2721F14A-1A43-446C-ABA6-D648E1698A79}" name="Colonne3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{AE54135D-A177-45A0-906D-E0365775156C}" name="Colonne4" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{4F88C666-E19B-4585-A772-267468D29CD3}" name="Colonne5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A3E0E3DF-A49F-4451-9C69-F1D244077817}" name="Colonne6" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D1414C85-80FC-4886-B0B7-75383A8F35AF}" name="Colonne7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{23E81DD7-DFE4-40F3-9B8E-2AF5E755B2AF}" name="Colonne8" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{EACCD0C1-23F7-4F30-826B-7DD424BA49B6}" name="Colonne1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9A22F50E-70ED-4050-A01E-521278A6B314}" name="Colonne2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{6DC57D46-1DA4-4EDB-80BE-34DF54F972A3}" name="Colonne3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D623BC87-18DD-472D-B5FD-83A87FCC00E3}" name="Colonne4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{2EB427DA-940E-49FC-B016-9C6CC15B156B}" name="Colonne5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{45C89AA2-C510-4A44-BE39-5E3DB1A75F64}" name="Colonne6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{B932DB8B-0249-4D6F-87B3-73460C32BBF7}" name="Colonne7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{A2F6107E-99D5-40DD-9909-8491AFE925F5}" name="Colonne8" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E70C8C92-6419-4842-B6EA-B4EE494C0456}" name="Tableau135" displayName="Tableau135" ref="A80:H87" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A80:H87" xr:uid="{BBC1A5F9-FCA9-4A20-9D9D-3233133D7401}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{544A0B0F-3239-4BD8-85C4-8189409465F9}" name="Tableau132" displayName="Tableau132" ref="A81:H88" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A81:H88" xr:uid="{B2ED6BBE-1734-4CA4-81B9-566FF5D66747}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1763F1BF-B4D5-456F-B3CB-7DF9665FD558}" name="Colonne1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{3F3F79B6-C0EC-4EB8-B798-EC712723F497}" name="Colonne2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{976D393E-73D4-4BC1-B29B-20808DCF8987}" name="Colonne3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{30A1DE6B-487D-47CB-A68B-EDF28778A039}" name="Colonne4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{5FE8F7C1-D577-4EAF-B56E-D5D64517C15C}" name="Colonne5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{1A607D9E-192C-4F47-BEAD-461BF589F4AA}" name="Colonne6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{FE12CCE3-3CC8-4D17-93F4-0FC08B6352C5}" name="Colonne7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{F317A276-DDD4-4EE2-8578-C652DC430933}" name="Colonne8" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{B861BFDC-1E4D-424D-8829-B26AA35F4745}" name="Colonne1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0D872482-5A52-4EE7-8C9C-836A0B85EB56}" name="Colonne2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{33CE73F0-5BA1-4BB8-809A-2371D7D5809F}" name="Colonne3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AB51D499-A9F3-49FC-9E91-06E5010B760E}" name="Colonne4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{17419B4C-99F2-4936-B22C-8C55FFF31C2D}" name="Colonne5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F0E51954-C586-4652-9467-DB524D4EEE06}" name="Colonne6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8CE6FF78-DD95-452A-BCE8-A75118C7AC34}" name="Colonne7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{280800F4-2E3F-4B74-B4C9-AAC295939886}" name="Colonne8" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7B56C120-BA3D-4897-AB82-9BB25ECB87FF}" name="Tableau146" displayName="Tableau146" ref="A1:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H8" xr:uid="{1F7087E7-C251-47AB-8208-C3937716FC1B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{419A8294-6A86-491A-AB75-027F200B141E}" name="Tableau1464" displayName="Tableau1464" ref="A69:H76" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A69:H76" xr:uid="{33668C23-1B00-43B8-B7D2-8014163589EE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EACCD0C1-23F7-4F30-826B-7DD424BA49B6}" name="Colonne1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9A22F50E-70ED-4050-A01E-521278A6B314}" name="Colonne2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6DC57D46-1DA4-4EDB-80BE-34DF54F972A3}" name="Colonne3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D623BC87-18DD-472D-B5FD-83A87FCC00E3}" name="Colonne4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2EB427DA-940E-49FC-B016-9C6CC15B156B}" name="Colonne5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{45C89AA2-C510-4A44-BE39-5E3DB1A75F64}" name="Colonne6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B932DB8B-0249-4D6F-87B3-73460C32BBF7}" name="Colonne7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{A2F6107E-99D5-40DD-9909-8491AFE925F5}" name="Colonne8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5B5AF472-DB38-46A0-B2B5-CC766B3C54B9}" name="Colonne1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0AB01E40-7BC7-4A3C-A469-89CDEEE5065A}" name="Colonne2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{25D3B119-B4EB-4766-AACA-FE1EFE0E6401}" name="Colonne3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9FAC3614-C3DE-49D6-8AD1-93EB2D4E5584}" name="Colonne4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0578C1DA-7D0D-4257-BF86-CC51FE420834}" name="Colonne5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{72BA1727-E788-46BA-85F4-E8CC87475F9F}" name="Colonne6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{727FEF8B-CB59-4671-B4D3-A50397302BAF}" name="Colonne7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{338C72DB-91C4-457A-8BDE-9E91D9B6E3AE}" name="Colonne8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6178,10 +8999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8AE5B4-427C-47C4-993D-00B29C4247C3}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6216,176 +9037,176 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="J2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="H2" s="38"/>
+      <c r="J2" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="85" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="G4" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="H4" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>145</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="E5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="F5" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="G5" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="E6" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="F6" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="G6" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="47" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="E7" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="F7" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="E8" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="F8" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="G8" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="47" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6446,158 +9267,158 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="63"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="87" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="88" t="s">
+      <c r="H18" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="88" t="s">
+      <c r="H20" s="49" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6632,801 +9453,799 @@
       <c r="H23" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="90" t="s">
+      <c r="G25" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="91" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="90" t="s">
+      <c r="F37" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="90" t="s">
+      <c r="G37" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="43"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="91" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="92" t="s">
+      <c r="H40" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="92" t="s">
+      <c r="H41" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="103" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="E48" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="104" t="s">
+      <c r="F48" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="104" t="s">
+      <c r="G48" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="96" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="31" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="97" t="s">
+      <c r="H50" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="97" t="s">
+      <c r="H51" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
+      <c r="A52" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="33" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="19" t="s">
+      <c r="F52" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="97" t="s">
+      <c r="H52" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="E53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="97" t="s">
+      <c r="H53" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="34" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="E54" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="F54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="98" t="s">
+      <c r="H54" s="59" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>18</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="61"/>
-      <c r="J69" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
       <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="38"/>
+      <c r="J70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="69" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="46" t="s">
         <v>9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G71" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="H71" s="70" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="H72" s="70" t="s">
+      <c r="A72" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H73" s="70" t="s">
+      <c r="A73" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="37"/>
+      <c r="C73" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H73" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" s="70" t="s">
+      <c r="A74" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="37"/>
+      <c r="C75" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H75" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="60"/>
-      <c r="C75" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="62" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H75" s="70" t="s">
+      <c r="H76" s="47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -7448,197 +10267,197 @@
       <c r="G78" s="4"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="40"/>
+      <c r="B82" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="40"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="64" t="s">
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="48" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="66" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="60"/>
-      <c r="C84" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="65" t="s">
+      <c r="A84" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="37"/>
+      <c r="C84" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="G84" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H85" s="66" t="s">
+      <c r="A85" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="60"/>
-      <c r="C86" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G86" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" s="66" t="s">
+      <c r="A86" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="H86" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
+      <c r="A87" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="60"/>
-      <c r="C87" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="62" t="s">
+      <c r="B88" s="37"/>
+      <c r="C88" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="62" t="s">
+      <c r="E88" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="67" t="s">
+      <c r="F88" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G87" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H87" s="66" t="s">
+      <c r="G88" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H88" s="49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -7660,471 +10479,481 @@
       <c r="G90" s="4"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="74"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="16" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="52" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E94" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="G94" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="H94" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="31"/>
+      <c r="C95" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H95" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="78" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F95" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="G95" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E96" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="20" t="s">
+      <c r="F96" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H96" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E97" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F97" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="G97" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="H97" s="22" t="s">
+      <c r="A97" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="29"/>
+      <c r="C98" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="H98" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="G98" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="H98" s="27" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H99" s="53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="44" t="s">
+      <c r="A105" s="27"/>
+      <c r="B105" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="45"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="47" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="52" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E106" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F106" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G106" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="H106" s="51" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="45"/>
-      <c r="C107" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F107" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G107" s="46" t="s">
-        <v>76</v>
+      <c r="A107" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="31"/>
+      <c r="C107" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="H107" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="49"/>
-      <c r="C108" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D108" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E108" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G108" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H108" s="51" t="s">
+      <c r="A108" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="29"/>
+      <c r="C108" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H108" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E109" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F109" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="46" t="s">
-        <v>91</v>
+      <c r="A109" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="H109" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="48" t="s">
+    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G110" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H110" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="49"/>
-      <c r="C110" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D110" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E110" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F110" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="H110" s="51" t="s">
+      <c r="B111" s="31"/>
+      <c r="C111" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H111" s="53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F115" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="43"/>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="9"/>
+      <c r="B116" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="47" t="s">
+      <c r="B117" s="22"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="57" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="49"/>
-      <c r="C117" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F117" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G117" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H117" s="51" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="45"/>
-      <c r="C118" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E118" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G118" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H118" s="53" t="s">
+      <c r="A118" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H118" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="49"/>
-      <c r="C119" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E119" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F119" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="G119" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="H119" s="51" t="s">
+      <c r="A119" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H119" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="25"/>
+      <c r="C120" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H120" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="45"/>
-      <c r="C120" s="46" t="s">
+      <c r="B121" s="24"/>
+      <c r="C121" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F120" s="46" t="s">
+      <c r="D121" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G120" s="46" t="s">
+      <c r="H121" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="C122" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H120" s="53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="49"/>
-      <c r="C121" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="F121" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="G121" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="H121" s="51" t="s">
+      <c r="D122" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="59" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Règles entrées-sorties.xlsx
+++ b/Règles entrées-sorties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\FarmingBySat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DCF973-AFEB-4D89-8E0E-C39B622B7BAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3A3482-1C1D-43F1-BBE5-8AA9E55BEF30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{3A6E5F9F-AA8D-4EB7-881E-B76FB4A0F4EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="241">
   <si>
     <t>quantité Azote</t>
   </si>
@@ -7179,6 +7179,9 @@
       </rPr>
       <t xml:space="preserve">   Radis 33%</t>
     </r>
+  </si>
+  <si>
+    <t>Tableaux reliant les entrées et les sorties</t>
   </si>
 </sst>
 </file>
@@ -7679,7 +7682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7858,6 +7861,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9001,8 +9005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8AE5B4-427C-47C4-993D-00B29C4247C3}">
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,6 +9039,11 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
